--- a/biology/Botanique/Macleania/Macleania.xlsx
+++ b/biology/Botanique/Macleania/Macleania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macleania est un genre de plantes à fleurs appartenant à la famille des Ericaceae que l'on trouve du Sud du Mexique, jusqu'au Pérou.
 </t>
@@ -511,9 +523,11 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre compte vingt-huit espèces acceptées[1], dont :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce genre compte vingt-huit espèces acceptées, dont :
 Macleania alata
 Macleania alpicola
 Macleania amplexicaulis
@@ -524,11 +538,11 @@
 Macleania insignis
 Macleania loeseneriana
 Macleania rupestris
-Macleania salapa[2]
-Macleania smithiana[3]
-Macleania stricta[4]
-Macleania subsessilis[5]
-Macleania tropica[4]</t>
+Macleania salapa
+Macleania smithiana
+Macleania stricta
+Macleania subsessilis
+Macleania tropica</t>
         </is>
       </c>
     </row>
@@ -556,7 +570,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été décrit en 1837 par Hooker, d'après un spécimen rapporté du Pérou. Johann Friedrich Klotzsch a identifié dix espèces en 1851. Plus tard, Hooker sépare Psammisia de Macleania. Oscar Drude (1891) et William Wright Smith (1942), ainsi que d'autres botanistes, soulignèrent la nature remarquable de ce genre et sa parenté avec Psammisia.
 </t>
@@ -588,6 +604,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
